--- a/data/45949.xlsx
+++ b/data/45949.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="Tento_zošit" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Škola\Inžinierské ročníky\Diplomová práca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Diplomovka\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="435" windowWidth="24675" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="45947" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
     <t>Priezvisko</t>
   </si>
   <si>
-    <t>Dátum narodenia</t>
-  </si>
-  <si>
-    <t>Poradové číslo</t>
-  </si>
-  <si>
     <t>Daffy</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>Ahoj</t>
+  </si>
+  <si>
+    <t>Datum_narodenia</t>
+  </si>
+  <si>
+    <t>Poradove_cislo</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -567,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -578,10 +578,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3">
         <v>39783</v>
@@ -595,10 +595,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3">
         <v>36920</v>
@@ -612,10 +612,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3">
         <v>37170</v>
@@ -629,10 +629,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3">
         <v>38276</v>
@@ -642,11 +642,14 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3">
         <v>37156</v>
@@ -656,11 +659,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3">
         <v>38711</v>
@@ -670,11 +676,14 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3">
         <v>37141</v>
@@ -684,11 +693,14 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3">
         <v>38956</v>
@@ -698,11 +710,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3">
         <v>39831</v>
@@ -712,11 +727,14 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3">
         <v>37587</v>
@@ -726,11 +744,14 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3">
         <v>38501</v>
@@ -740,11 +761,14 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3">
         <v>37687</v>
@@ -754,11 +778,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3">
         <v>38278</v>
@@ -768,11 +795,14 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3">
         <v>38233</v>
@@ -782,11 +812,14 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3">
         <v>39279</v>
@@ -795,12 +828,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3">
         <v>39292</v>
@@ -809,12 +845,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3">
         <v>39259</v>
@@ -823,12 +862,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3">
         <v>39777</v>
@@ -837,12 +879,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="4">
         <v>38963</v>
@@ -851,12 +896,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="3">
         <v>38768</v>
